--- a/Chapter 2/Table S2.xlsx
+++ b/Chapter 2/Table S2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\266se\Documents\_Work_\_ PhD\Thesis\Chapter 2 - Cohort\Figures and tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\266se\Documents\GitHub\thesis_supplementary\Chapter 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B36A02-F893-43F8-94DC-7EA3235D751E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06ABFB8D-1D09-44F6-A389-D7BC5DB24746}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -750,9 +750,6 @@
     <t xml:space="preserve">Microcephaly (&lt;-3SD), absent corpus callosum, fused thalamus and fused cerebellum consistent with rhombencephalosynapsis. Cerebellar hypoplasia. Abnormality of hindbrain morphology. Brainstem dysplasia Facial features slightly unusual but not diagnostic of a particular syndrome. </t>
   </si>
   <si>
-    <t xml:space="preserve">Posterior fossa Dandy Walker cyst, hydrocephalus, agenesis of corpus callosum, possible occipital schizencephalic cleft. Abnormaility of neuronal migration disorder, periventricular and cerebellar neuronal heterotopias. Twin 2 (male) unaffected </t>
-  </si>
-  <si>
     <t>Extensive bilateral posterior periventricular nodular heterotopia, Unilateral cerebral ventricular dilatation, brain is otherwise structurally normal. Femur and humerus at the lower end of normal. Prominent calcaneus. Subtle dysmorphic features - Wide anterior fontanel, Triangular face</t>
   </si>
   <si>
@@ -850,6 +847,9 @@
   </si>
   <si>
     <t>Ventricular septal defect, Discordant atrioventricular connection, Hypoplasia of right ventricle, Pulmonary artery hypoplasia, Double outlet right ventricle, Dextrocardia, Intrauterine growth retardation, Micrognathia, Depressed nasal bridge. 2x siblings with isolated VSD.</t>
+  </si>
+  <si>
+    <t>Posterior fossa Dandy Walker cyst, hydrocephalus, agenesis of corpus callosum, possible occipital schizencephalic cleft. Abnormaility of neuronal migration disorder, periventricular and cerebellar neuronal heterotopias. Twin 2 (male) unaffected. Sib with anencephaly. Sib with variant of Turner Syndrome.</t>
   </si>
 </sst>
 </file>
@@ -1763,7 +1763,7 @@
   <sheetData>
     <row r="1" spans="1:22" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>185</v>
@@ -1793,7 +1793,7 @@
         <v>2</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L1" s="9" t="s">
         <v>164</v>
@@ -2249,7 +2249,7 @@
         <v>41</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L9" s="6" t="s">
         <v>16</v>
@@ -2303,7 +2303,7 @@
         <v>21</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L10" s="6" t="s">
         <v>22</v>
@@ -2355,7 +2355,7 @@
         <v>41</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L11" s="6" t="s">
         <v>16</v>
@@ -2403,7 +2403,7 @@
         <v>15</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L12" s="6" t="s">
         <v>14</v>
@@ -2455,7 +2455,7 @@
         <v>50</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L13" s="6" t="s">
         <v>22</v>
@@ -2507,7 +2507,7 @@
         <v>21</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L14" s="6" t="s">
         <v>16</v>
@@ -2557,7 +2557,7 @@
         <v>202</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L15" s="6" t="s">
         <v>16</v>
@@ -2609,7 +2609,7 @@
         <v>56</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="L16" s="6" t="s">
         <v>14</v>
@@ -2711,7 +2711,7 @@
         <v>21</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>239</v>
+        <v>272</v>
       </c>
       <c r="L18" s="6" t="s">
         <v>22</v>
@@ -2811,7 +2811,7 @@
         <v>21</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L20" s="6" t="s">
         <v>22</v>
@@ -2961,7 +2961,7 @@
         <v>15</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L23" s="6" t="s">
         <v>16</v>
@@ -3007,7 +3007,7 @@
         <v>41</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L24" s="6" t="s">
         <v>14</v>
@@ -3119,7 +3119,7 @@
         <v>73</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L26" s="6" t="s">
         <v>14</v>
@@ -3173,7 +3173,7 @@
         <v>136</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L27" s="6" t="s">
         <v>14</v>
@@ -3327,7 +3327,7 @@
         <v>21</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L30" s="6" t="s">
         <v>14</v>
@@ -3429,7 +3429,7 @@
         <v>59</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L32" s="6" t="s">
         <v>14</v>
@@ -3483,7 +3483,7 @@
         <v>59</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="L33" s="6" t="s">
         <v>14</v>
@@ -3531,7 +3531,7 @@
         <v>21</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L34" s="6" t="s">
         <v>22</v>
@@ -3585,7 +3585,7 @@
         <v>21</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L35" s="6" t="s">
         <v>14</v>
@@ -3691,7 +3691,7 @@
         <v>59</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L37" s="6" t="s">
         <v>14</v>
@@ -3710,7 +3710,7 @@
       <c r="T37" s="6"/>
       <c r="U37" s="6"/>
       <c r="V37" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="38" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -3741,7 +3741,7 @@
         <v>96</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L38" s="6" t="s">
         <v>14</v>
@@ -3839,7 +3839,7 @@
         <v>15</v>
       </c>
       <c r="K40" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L40" s="6" t="s">
         <v>16</v>
@@ -3933,7 +3933,7 @@
         <v>21</v>
       </c>
       <c r="K42" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="L42" s="6" t="s">
         <v>22</v>
@@ -4135,7 +4135,7 @@
         <v>15</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L46" s="6" t="s">
         <v>22</v>
@@ -4283,7 +4283,7 @@
         <v>21</v>
       </c>
       <c r="K49" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L49" s="6" t="s">
         <v>22</v>
@@ -4335,7 +4335,7 @@
         <v>59</v>
       </c>
       <c r="K50" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L50" s="6" t="s">
         <v>14</v>
@@ -4539,7 +4539,7 @@
         <v>21</v>
       </c>
       <c r="K54" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L54" s="6" t="s">
         <v>22</v>
@@ -4587,7 +4587,7 @@
         <v>24</v>
       </c>
       <c r="K55" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L55" s="6" t="s">
         <v>22</v>
@@ -4687,7 +4687,7 @@
         <v>56</v>
       </c>
       <c r="K57" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L57" s="6" t="s">
         <v>22</v>
@@ -4733,7 +4733,7 @@
         <v>24</v>
       </c>
       <c r="K58" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L58" s="6" t="s">
         <v>14</v>
@@ -4755,7 +4755,7 @@
       <c r="S58" s="6"/>
       <c r="T58" s="6"/>
       <c r="U58" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="V58" s="6"/>
     </row>
